--- a/biology/Zoologie/Amphotis/Amphotis.xlsx
+++ b/biology/Zoologie/Amphotis/Amphotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphotis est un genre de coléoptères se nourrissant de sève de la famille des Nitidulidae. Il y a environ huit espèces décrites dans Amphotis.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Amphotis est décrit en 1843 par l'entomologiste allemand Wilhelm Ferdinand Erichson (1809-1848)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Amphotis est décrit en 1843 par l'entomologiste allemand Wilhelm Ferdinand Erichson (1809-1848),.
 </t>
         </is>
       </c>
@@ -542,22 +556,59 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces huit espèces appartiennent au genre Amphotis[3],[4],[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces huit espèces appartiennent au genre Amphotis :
 †Amphotis bella Heer, 1847
 †Amphotis depressa Théobald, 1937
 Amphotis marginata (Fabricius, 1781)
 Amphotis martini C.Brisout de Barneville, 1878
-†Amphotis oeningensis Heer, 1862[2]
+†Amphotis oeningensis Heer, 1862
 Amphotis orientalis Reiche, 1861
 Amphotis schwarzi Ulke, 1887
 Amphotis ulkei LeConte, 1866
-Espèces fossiles
-Trois sont des espèces fossiles[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amphotis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphotis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois sont des espèces fossiles :
 †Amphotis bella Heer, 1847
 †Amphotis depressa Théobald, 1937
-†Amphotis oeningensis Heer, 1862[2]
+†Amphotis oeningensis Heer, 1862
 </t>
         </is>
       </c>
